--- a/main_code/spider/resource/data/2025.9.1.xlsx
+++ b/main_code/spider/resource/data/2025.9.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="132">
   <si>
     <t>学号</t>
   </si>
@@ -113,7 +113,7 @@
     <t>24408040201</t>
   </si>
   <si>
-    <t>密码改了，已提醒未回</t>
+    <t>001030</t>
   </si>
   <si>
     <t>24413040253</t>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>24405100228</t>
+  </si>
+  <si>
+    <t>25408030206</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1141,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1486,12 +1492,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q262"/>
+  <dimension ref="A1:Q266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R145" sqref="R145"/>
+      <selection pane="bottomLeft" activeCell="N237" sqref="N237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2136,8 +2142,8 @@
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
-        <v>1030</v>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -2156,12 +2162,6 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="3"/>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
@@ -6812,7 +6812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:12">
       <c r="A225" s="2" t="s">
         <v>91</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:12">
       <c r="A226" s="2" t="s">
         <v>92</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:12">
       <c r="A227" s="2" t="s">
         <v>94</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="228" ht="15.15" spans="1:10">
+    <row r="228" ht="15.15" spans="1:12">
       <c r="A228" s="2" t="s">
         <v>96</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:12">
       <c r="A229" s="7" t="s">
         <v>97</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>11.19</v>
       </c>
     </row>
-    <row r="230" ht="15.15" spans="1:10">
+    <row r="230" ht="15.15" spans="1:12">
       <c r="A230" s="10" t="s">
         <v>98</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:12">
       <c r="A231" s="2" t="s">
         <v>99</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:12">
       <c r="A232" s="2" t="s">
         <v>100</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" ht="15.15" spans="1:10">
+    <row r="233" ht="15.15" spans="1:12">
       <c r="A233" s="2" t="s">
         <v>101</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:12">
       <c r="A234" s="7" t="s">
         <v>102</v>
       </c>
@@ -7046,8 +7046,11 @@
       <c r="I234" s="15">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="L234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="9" t="s">
         <v>103</v>
       </c>
@@ -7067,8 +7070,11 @@
         <v>12</v>
       </c>
       <c r="I235" s="15"/>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="L235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" s="9" t="s">
         <v>104</v>
       </c>
@@ -7088,8 +7094,11 @@
         <v>14.4</v>
       </c>
       <c r="I236" s="15"/>
-    </row>
-    <row r="237" ht="15.15" spans="1:10">
+      <c r="L236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="10" t="s">
         <v>105</v>
       </c>
@@ -7109,8 +7118,11 @@
         <v>12</v>
       </c>
       <c r="I237" s="15"/>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="L237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="2" t="s">
         <v>106</v>
       </c>
@@ -7131,7 +7143,7 @@
       </c>
       <c r="I238" s="15"/>
     </row>
-    <row r="239" ht="15.15" spans="1:10">
+    <row r="239" ht="15.15" spans="1:12">
       <c r="A239" s="2" t="s">
         <v>107</v>
       </c>
@@ -7152,7 +7164,7 @@
       </c>
       <c r="I239" s="15"/>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:12">
       <c r="A240" s="7" t="s">
         <v>108</v>
       </c>
@@ -7546,7 +7558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" ht="15.15" spans="1:8">
+    <row r="257" ht="15.15" spans="1:9">
       <c r="A257" s="10" t="s">
         <v>125</v>
       </c>
@@ -7567,7 +7579,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:9">
       <c r="A258" s="2" t="s">
         <v>126</v>
       </c>
@@ -7590,7 +7602,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:9">
       <c r="A259" s="2" t="s">
         <v>127</v>
       </c>
@@ -7612,8 +7624,11 @@
       <c r="H259" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="260" spans="1:8">
+      <c r="I259" s="3">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" s="2" t="s">
         <v>128</v>
       </c>
@@ -7633,7 +7648,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:9">
       <c r="A261" s="2" t="s">
         <v>129</v>
       </c>
@@ -7656,7 +7671,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:9">
       <c r="A262" s="2" t="s">
         <v>130</v>
       </c>
@@ -7676,8 +7691,103 @@
         <v>20</v>
       </c>
     </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+      <c r="D263" s="3">
+        <v>1</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>0</v>
+      </c>
+      <c r="G263" s="4">
+        <f t="shared" ref="G263:G265" si="12">8/2</f>
+        <v>4</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I263" s="3">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C264" s="3">
+        <v>0</v>
+      </c>
+      <c r="D264" s="3">
+        <v>1</v>
+      </c>
+      <c r="E264" s="3">
+        <v>0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0</v>
+      </c>
+      <c r="G264" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
+      <c r="D265" s="3">
+        <v>1</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>0</v>
+      </c>
+      <c r="G265" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C266" s="3">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0</v>
+      </c>
+      <c r="E266" s="3">
+        <v>0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G266" s="4">
+        <v>10</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I266" s="3">
+        <v>11.29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="101">
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="G12:G15"/>
@@ -7748,6 +7858,8 @@
     <mergeCell ref="H251:H254"/>
     <mergeCell ref="H255:H257"/>
     <mergeCell ref="H259:H260"/>
+    <mergeCell ref="H261:H262"/>
+    <mergeCell ref="H263:H265"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I16:I20"/>
@@ -7772,6 +7884,8 @@
     <mergeCell ref="I244:I247"/>
     <mergeCell ref="I249:I250"/>
     <mergeCell ref="I251:I258"/>
+    <mergeCell ref="I259:I262"/>
+    <mergeCell ref="I263:I265"/>
     <mergeCell ref="M2:M8"/>
     <mergeCell ref="N141:N144"/>
     <mergeCell ref="O65:O68"/>
@@ -7779,7 +7893,7 @@
   <pageMargins left="0.699912516150888" right="0.699912516150888" top="0.74990626395218" bottom="0.74990626395218" header="0.299962510274151" footer="0.299962510274151"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A137:Q167 H24:Q27 A24:F27 H12:Q21 A12:F21 A10:Q11 H9:Q9 A9:F9 A2:Q8 A1:O1 A33:Q33 P32:Q32 A32:N32 A29:Q31 A22:Q23 B168:O168 A169:Q192 A193:C193 E193:F193 H193:Q193 A194:Q213 H131:Q136 A131:F136 A129:Q130 H127:Q128 A127:F128 A121:Q126 H115:Q120 A115:F120 A113:Q114 H110:Q112 A110:F112 A105:Q109 H93:Q104 A93:F104 A92:Q92 H79:Q91 A79:F91 A77:Q78 H73:Q75 H76:N76 P76:Q76 A73:F76 A71:Q72 H65:N65 P65:Q65 H66:Q70 A65:F70 A64:Q64 H60:Q63 A60:F63 A59:Q59 H34:Q58 A34:F58" numberStoredAsText="1"/>
+    <ignoredError sqref="A137:Q167 H24:Q27 A24:F27 H12:Q21 A12:F21 A10:Q11 H9:Q9 A9:F9 A2:Q8 A1:O1 A33:Q33 P32:Q32 A32:N32 A29:Q31 N23:Q23 C23:K23 A23 A22:Q22 B168:O168 A169:Q192 A193:C193 E193:F193 H193:Q193 A194:Q213 H131:Q136 A131:F136 A129:Q130 H127:Q128 A127:F128 A121:Q126 H115:Q120 A115:F120 A113:Q114 H110:Q112 A110:F112 A105:Q109 H93:Q104 A93:F104 A92:Q92 H79:Q91 A79:F91 A77:Q78 H73:Q75 H76:N76 P76:Q76 A73:F76 A71:Q72 H65:N65 P65:Q65 H66:Q70 A65:F70 A64:Q64 H60:Q63 A60:F63 A59:Q59 H34:Q58 A34:F58" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>